--- a/SistemaVotaciones/app/datos.xlsx
+++ b/SistemaVotaciones/app/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aylin\Documents\GitHub\SistemaDeVotacion\SistemaVotaciones\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C2FE5-B6D7-4202-A29A-E669E936A077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC26987-7EA9-4654-8C01-CA6ACF292F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>Andrea</t>
   </si>
   <si>
-    <t>Farí­as Troncoso</t>
-  </si>
-  <si>
     <t>afarias@mail.com</t>
   </si>
   <si>
@@ -1016,6 +1013,9 @@
   </si>
   <si>
     <t>Molina Zuniga</t>
+  </si>
+  <si>
+    <t>Farias Troncoso</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,13 +2411,13 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
       </c>
       <c r="G14">
         <v>92614</v>
@@ -2446,19 +2446,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
       </c>
       <c r="G15">
         <v>98865</v>
@@ -2487,19 +2487,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
       </c>
       <c r="G16">
         <v>94687</v>
@@ -2528,19 +2528,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
       </c>
       <c r="G17">
         <v>96846</v>
@@ -2569,19 +2569,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
       </c>
       <c r="G18">
         <v>95622</v>
@@ -2610,19 +2610,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
       </c>
       <c r="G19">
         <v>91675</v>
@@ -2651,19 +2651,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
         <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
       </c>
       <c r="G20">
         <v>98666</v>
@@ -2692,19 +2692,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
       </c>
       <c r="G21">
         <v>94659</v>
@@ -2733,19 +2733,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>96</v>
       </c>
       <c r="G22">
         <v>91311</v>
@@ -2774,19 +2774,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
       </c>
       <c r="G23">
         <v>92201</v>
@@ -2815,19 +2815,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
       </c>
       <c r="G24">
         <v>91191</v>
@@ -2856,19 +2856,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>107</v>
       </c>
       <c r="G25">
         <v>96994</v>
@@ -2897,19 +2897,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
       </c>
       <c r="G26">
         <v>97360</v>
@@ -2938,19 +2938,19 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>113</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>114</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
       </c>
       <c r="G27">
         <v>94103</v>
@@ -2979,19 +2979,19 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
         <v>118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
       </c>
       <c r="G28">
         <v>94210</v>
@@ -3020,19 +3020,19 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
         <v>120</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
         <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
       </c>
       <c r="G29">
         <v>99059</v>
@@ -3061,19 +3061,19 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>125</v>
-      </c>
-      <c r="D30" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>126</v>
       </c>
       <c r="G30">
         <v>90993</v>
@@ -3102,19 +3102,19 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
       </c>
       <c r="G31">
         <v>91451</v>
@@ -3143,19 +3143,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
         <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>132</v>
       </c>
       <c r="G32">
         <v>97810</v>
@@ -3184,19 +3184,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
         <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>135</v>
       </c>
       <c r="G33">
         <v>92791</v>
@@ -3225,19 +3225,19 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
         <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>324</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>138</v>
       </c>
       <c r="G34">
         <v>91696</v>
@@ -3266,19 +3266,19 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>140</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
         <v>141</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>142</v>
       </c>
       <c r="G35">
         <v>94170</v>
@@ -3307,19 +3307,19 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>144</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>145</v>
       </c>
       <c r="G36">
         <v>90620</v>
@@ -3348,19 +3348,19 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>148</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>149</v>
       </c>
       <c r="G37">
         <v>91735</v>
@@ -3389,19 +3389,19 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
         <v>150</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
         <v>152</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>153</v>
       </c>
       <c r="G38">
         <v>95896</v>
@@ -3430,19 +3430,19 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
         <v>156</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
       </c>
       <c r="G39">
         <v>93809</v>
@@ -3471,19 +3471,19 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
         <v>158</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>159</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
         <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>161</v>
       </c>
       <c r="G40">
         <v>96688</v>
@@ -3512,19 +3512,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
         <v>162</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>163</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
         <v>164</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>165</v>
       </c>
       <c r="G41">
         <v>97884</v>
@@ -3553,19 +3553,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
         <v>166</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>167</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
         <v>168</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>169</v>
       </c>
       <c r="G42">
         <v>95405</v>
@@ -3594,19 +3594,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
         <v>170</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>171</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
         <v>172</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>173</v>
       </c>
       <c r="G43">
         <v>91697</v>
@@ -3635,19 +3635,19 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>175</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
         <v>176</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>177</v>
       </c>
       <c r="G44">
         <v>94667</v>
@@ -3676,19 +3676,19 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>179</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
         <v>180</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>181</v>
       </c>
       <c r="G45">
         <v>98024</v>
@@ -3717,19 +3717,19 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
         <v>182</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>183</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
         <v>184</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" t="s">
-        <v>185</v>
       </c>
       <c r="G46">
         <v>96571</v>
@@ -3758,19 +3758,19 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
         <v>186</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>187</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
         <v>188</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>189</v>
       </c>
       <c r="G47">
         <v>97832</v>
@@ -3799,19 +3799,19 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
         <v>190</v>
       </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
         <v>191</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>192</v>
       </c>
       <c r="G48">
         <v>98321</v>
@@ -3840,19 +3840,19 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>194</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
         <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>196</v>
       </c>
       <c r="G49">
         <v>92491</v>
@@ -3881,19 +3881,19 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s">
         <v>199</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" t="s">
-        <v>200</v>
       </c>
       <c r="G50">
         <v>98112</v>
@@ -3922,19 +3922,19 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
         <v>201</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>202</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
         <v>203</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>204</v>
       </c>
       <c r="G51">
         <v>91204</v>
@@ -3963,19 +3963,19 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
         <v>205</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
         <v>207</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>208</v>
       </c>
       <c r="G52">
         <v>94713</v>
@@ -4004,19 +4004,19 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
         <v>209</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>210</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
         <v>211</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>212</v>
       </c>
       <c r="G53">
         <v>95565</v>
@@ -4045,19 +4045,19 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
         <v>213</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>214</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
         <v>215</v>
-      </c>
-      <c r="E54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" t="s">
-        <v>216</v>
       </c>
       <c r="G54">
         <v>92398</v>
@@ -4086,19 +4086,19 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
         <v>217</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>218</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
         <v>219</v>
-      </c>
-      <c r="E55" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" t="s">
-        <v>220</v>
       </c>
       <c r="G55">
         <v>95284</v>
@@ -4127,19 +4127,19 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
         <v>221</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>222</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" t="s">
         <v>223</v>
-      </c>
-      <c r="E56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" t="s">
-        <v>224</v>
       </c>
       <c r="G56">
         <v>92721</v>
@@ -4168,19 +4168,19 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
         <v>226</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
-        <v>227</v>
       </c>
       <c r="G57">
         <v>94498</v>
@@ -4209,19 +4209,19 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" t="s">
         <v>228</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>229</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
         <v>230</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>231</v>
       </c>
       <c r="G58">
         <v>94014</v>
@@ -4250,19 +4250,19 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
         <v>232</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>233</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
         <v>234</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>235</v>
       </c>
       <c r="G59">
         <v>93106</v>
@@ -4291,19 +4291,19 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
         <v>236</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
         <v>238</v>
-      </c>
-      <c r="E60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" t="s">
-        <v>239</v>
       </c>
       <c r="G60">
         <v>97019</v>
@@ -4332,19 +4332,19 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
         <v>240</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>241</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
         <v>242</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>243</v>
       </c>
       <c r="G61">
         <v>93586</v>
@@ -4373,19 +4373,19 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s">
         <v>244</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
         <v>245</v>
-      </c>
-      <c r="D62" t="s">
-        <v>329</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>246</v>
       </c>
       <c r="G62">
         <v>95028</v>
@@ -4414,19 +4414,19 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
         <v>247</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>248</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
         <v>249</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
-        <v>250</v>
       </c>
       <c r="G63">
         <v>92079</v>
@@ -4455,19 +4455,19 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
         <v>251</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>252</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="s">
         <v>253</v>
-      </c>
-      <c r="E64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" t="s">
-        <v>254</v>
       </c>
       <c r="G64">
         <v>94051</v>
@@ -4496,19 +4496,19 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" t="s">
         <v>255</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s">
         <v>256</v>
-      </c>
-      <c r="D65" t="s">
-        <v>330</v>
-      </c>
-      <c r="E65" t="s">
-        <v>68</v>
-      </c>
-      <c r="F65" t="s">
-        <v>257</v>
       </c>
       <c r="G65">
         <v>91592</v>
@@ -4537,19 +4537,19 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
         <v>258</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s">
         <v>259</v>
-      </c>
-      <c r="D66" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" t="s">
-        <v>260</v>
       </c>
       <c r="G66">
         <v>97690</v>
@@ -4578,19 +4578,19 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" t="s">
         <v>261</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>262</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
         <v>263</v>
-      </c>
-      <c r="E67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" t="s">
-        <v>264</v>
       </c>
       <c r="G67">
         <v>93496</v>
@@ -4619,19 +4619,19 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" t="s">
         <v>265</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>266</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
         <v>267</v>
-      </c>
-      <c r="E68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" t="s">
-        <v>268</v>
       </c>
       <c r="G68">
         <v>94492</v>
@@ -4660,19 +4660,19 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" t="s">
         <v>269</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
         <v>270</v>
-      </c>
-      <c r="D69" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>271</v>
       </c>
       <c r="G69">
         <v>93913</v>
@@ -4701,19 +4701,19 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" t="s">
         <v>272</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>273</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" t="s">
         <v>274</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" t="s">
-        <v>275</v>
       </c>
       <c r="G70">
         <v>91689</v>
@@ -4742,19 +4742,19 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
         <v>276</v>
       </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
         <v>277</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>278</v>
       </c>
       <c r="G71">
         <v>95560</v>
@@ -4783,19 +4783,19 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s">
         <v>279</v>
       </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
         <v>280</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>281</v>
       </c>
       <c r="G72">
         <v>95285</v>
@@ -4824,19 +4824,19 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" t="s">
         <v>282</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>283</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
         <v>284</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>285</v>
       </c>
       <c r="G73">
         <v>93363</v>
@@ -4865,19 +4865,19 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="s">
         <v>286</v>
       </c>
-      <c r="C74" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
         <v>287</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>288</v>
       </c>
       <c r="G74">
         <v>98599</v>
@@ -4906,19 +4906,19 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" t="s">
         <v>289</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>290</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
         <v>291</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>292</v>
       </c>
       <c r="G75">
         <v>94252</v>
@@ -4947,19 +4947,19 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" t="s">
         <v>293</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>294</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
         <v>295</v>
-      </c>
-      <c r="E76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" t="s">
-        <v>296</v>
       </c>
       <c r="G76">
         <v>93333</v>
@@ -4988,19 +4988,19 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" t="s">
         <v>297</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>298</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" t="s">
         <v>299</v>
-      </c>
-      <c r="E77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" t="s">
-        <v>300</v>
       </c>
       <c r="G77">
         <v>95218</v>
@@ -5029,19 +5029,19 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
         <v>301</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>302</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
         <v>303</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>304</v>
       </c>
       <c r="G78">
         <v>97238</v>
@@ -5070,19 +5070,19 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
         <v>305</v>
       </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
         <v>306</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>307</v>
       </c>
       <c r="G79">
         <v>99601</v>
@@ -5111,19 +5111,19 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" t="s">
         <v>308</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>309</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" t="s">
         <v>310</v>
-      </c>
-      <c r="E80" t="s">
-        <v>68</v>
-      </c>
-      <c r="F80" t="s">
-        <v>311</v>
       </c>
       <c r="G80">
         <v>99443</v>
@@ -5152,19 +5152,19 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" t="s">
         <v>312</v>
       </c>
-      <c r="C81" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
         <v>313</v>
-      </c>
-      <c r="E81" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" t="s">
-        <v>314</v>
       </c>
       <c r="G81">
         <v>92628</v>
@@ -5193,19 +5193,19 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" t="s">
         <v>315</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>316</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
         <v>317</v>
-      </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>318</v>
       </c>
       <c r="G82">
         <v>95076</v>
@@ -5234,19 +5234,19 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" t="s">
         <v>319</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>320</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
         <v>321</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>322</v>
       </c>
       <c r="G83">
         <v>93195</v>

--- a/SistemaVotaciones/app/datos.xlsx
+++ b/SistemaVotaciones/app/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aylin\Documents\GitHub\SistemaDeVotacion\SistemaVotaciones\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC26987-7EA9-4654-8C01-CA6ACF292F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB0D0C-7CFD-4343-A3D5-C906AAA2F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,9 +280,6 @@
     <t>Claudio</t>
   </si>
   <si>
-    <t>Henríquez Henríquez</t>
-  </si>
-  <si>
     <t>chenriquez@mail.com</t>
   </si>
   <si>
@@ -559,9 +556,6 @@
     <t>Maura</t>
   </si>
   <si>
-    <t>San Martí­n Vera</t>
-  </si>
-  <si>
     <t>msanmartin@mail.com</t>
   </si>
   <si>
@@ -1016,6 +1010,12 @@
   </si>
   <si>
     <t>Farias Troncoso</t>
+  </si>
+  <si>
+    <t>San Martin Vera</t>
+  </si>
+  <si>
+    <t>Henríquez Henriquez</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,7 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -2616,7 +2616,7 @@
         <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -2657,13 +2657,13 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>98666</v>
@@ -2692,19 +2692,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
       </c>
       <c r="G21">
         <v>94659</v>
@@ -2733,19 +2733,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
       </c>
       <c r="G22">
         <v>91311</v>
@@ -2774,19 +2774,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
       </c>
       <c r="G23">
         <v>92201</v>
@@ -2815,19 +2815,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
         <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
       </c>
       <c r="G24">
         <v>91191</v>
@@ -2856,19 +2856,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
       </c>
       <c r="G25">
         <v>96994</v>
@@ -2897,19 +2897,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>108</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
       </c>
       <c r="G26">
         <v>97360</v>
@@ -2938,19 +2938,19 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
       </c>
       <c r="G27">
         <v>94103</v>
@@ -2979,19 +2979,19 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>117</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28">
         <v>94210</v>
@@ -3020,19 +3020,19 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
         <v>119</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
       </c>
       <c r="G29">
         <v>99059</v>
@@ -3061,19 +3061,19 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
         <v>123</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
       </c>
       <c r="G30">
         <v>90993</v>
@@ -3102,19 +3102,19 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
         <v>126</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
       </c>
       <c r="G31">
         <v>91451</v>
@@ -3143,19 +3143,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
         <v>129</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
       </c>
       <c r="G32">
         <v>97810</v>
@@ -3184,19 +3184,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
         <v>133</v>
-      </c>
-      <c r="D33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
       </c>
       <c r="G33">
         <v>92791</v>
@@ -3225,19 +3225,19 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" t="s">
-        <v>323</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>137</v>
       </c>
       <c r="G34">
         <v>91696</v>
@@ -3266,19 +3266,19 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>139</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
         <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>141</v>
       </c>
       <c r="G35">
         <v>94170</v>
@@ -3307,19 +3307,19 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>143</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>144</v>
       </c>
       <c r="G36">
         <v>90620</v>
@@ -3348,19 +3348,19 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>148</v>
       </c>
       <c r="G37">
         <v>91735</v>
@@ -3389,19 +3389,19 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
         <v>151</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>152</v>
       </c>
       <c r="G38">
         <v>95896</v>
@@ -3430,19 +3430,19 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
         <v>155</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>156</v>
       </c>
       <c r="G39">
         <v>93809</v>
@@ -3471,19 +3471,19 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>158</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
         <v>159</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>160</v>
       </c>
       <c r="G40">
         <v>96688</v>
@@ -3512,19 +3512,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
         <v>163</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>164</v>
       </c>
       <c r="G41">
         <v>97884</v>
@@ -3553,19 +3553,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
         <v>165</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>166</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
         <v>167</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>168</v>
       </c>
       <c r="G42">
         <v>95405</v>
@@ -3594,19 +3594,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
         <v>169</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>170</v>
-      </c>
-      <c r="D43" t="s">
-        <v>171</v>
       </c>
       <c r="E43" t="s">
         <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G43">
         <v>91697</v>
@@ -3635,19 +3635,19 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
         <v>173</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
         <v>175</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>176</v>
       </c>
       <c r="G44">
         <v>94667</v>
@@ -3676,19 +3676,19 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
         <v>177</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
         <v>178</v>
-      </c>
-      <c r="D45" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>180</v>
       </c>
       <c r="G45">
         <v>98024</v>
@@ -3717,19 +3717,19 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
         <v>181</v>
-      </c>
-      <c r="C46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" t="s">
-        <v>183</v>
       </c>
       <c r="E46" t="s">
         <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G46">
         <v>96571</v>
@@ -3758,19 +3758,19 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
         <v>185</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
         <v>186</v>
-      </c>
-      <c r="D47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>188</v>
       </c>
       <c r="G47">
         <v>97832</v>
@@ -3799,19 +3799,19 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
         <v>189</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>191</v>
       </c>
       <c r="G48">
         <v>98321</v>
@@ -3840,19 +3840,19 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
         <v>192</v>
-      </c>
-      <c r="C49" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" t="s">
-        <v>194</v>
       </c>
       <c r="E49" t="s">
         <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G49">
         <v>92491</v>
@@ -3881,19 +3881,19 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
         <v>196</v>
-      </c>
-      <c r="C50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" t="s">
-        <v>198</v>
       </c>
       <c r="E50" t="s">
         <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G50">
         <v>98112</v>
@@ -3922,19 +3922,19 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
         <v>200</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
         <v>201</v>
-      </c>
-      <c r="D51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>203</v>
       </c>
       <c r="G51">
         <v>91204</v>
@@ -3963,19 +3963,19 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
         <v>204</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
         <v>205</v>
-      </c>
-      <c r="D52" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>207</v>
       </c>
       <c r="G52">
         <v>94713</v>
@@ -4004,19 +4004,19 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
         <v>208</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
         <v>209</v>
-      </c>
-      <c r="D53" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>211</v>
       </c>
       <c r="G53">
         <v>95565</v>
@@ -4045,19 +4045,19 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
         <v>212</v>
-      </c>
-      <c r="C54" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" t="s">
-        <v>214</v>
       </c>
       <c r="E54" t="s">
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G54">
         <v>92398</v>
@@ -4086,19 +4086,19 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
         <v>216</v>
-      </c>
-      <c r="C55" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" t="s">
-        <v>218</v>
       </c>
       <c r="E55" t="s">
         <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G55">
         <v>95284</v>
@@ -4127,19 +4127,19 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
         <v>220</v>
-      </c>
-      <c r="C56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D56" t="s">
-        <v>222</v>
       </c>
       <c r="E56" t="s">
         <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G56">
         <v>92721</v>
@@ -4168,19 +4168,19 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G57">
         <v>94498</v>
@@ -4209,19 +4209,19 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" t="s">
         <v>227</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
         <v>228</v>
-      </c>
-      <c r="D58" t="s">
-        <v>229</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>230</v>
       </c>
       <c r="G58">
         <v>94014</v>
@@ -4250,19 +4250,19 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" t="s">
         <v>231</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
         <v>232</v>
-      </c>
-      <c r="D59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>234</v>
       </c>
       <c r="G59">
         <v>93106</v>
@@ -4291,19 +4291,19 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" t="s">
         <v>235</v>
-      </c>
-      <c r="C60" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" t="s">
-        <v>237</v>
       </c>
       <c r="E60" t="s">
         <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G60">
         <v>97019</v>
@@ -4332,19 +4332,19 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
         <v>239</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
         <v>240</v>
-      </c>
-      <c r="D61" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>242</v>
       </c>
       <c r="G61">
         <v>93586</v>
@@ -4373,19 +4373,19 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
         <v>243</v>
-      </c>
-      <c r="C62" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" t="s">
-        <v>328</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>245</v>
       </c>
       <c r="G62">
         <v>95028</v>
@@ -4414,19 +4414,19 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" t="s">
         <v>246</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
         <v>247</v>
-      </c>
-      <c r="D63" t="s">
-        <v>248</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
-        <v>249</v>
       </c>
       <c r="G63">
         <v>92079</v>
@@ -4455,19 +4455,19 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" t="s">
         <v>250</v>
-      </c>
-      <c r="C64" t="s">
-        <v>251</v>
-      </c>
-      <c r="D64" t="s">
-        <v>252</v>
       </c>
       <c r="E64" t="s">
         <v>67</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G64">
         <v>94051</v>
@@ -4496,19 +4496,19 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
       </c>
       <c r="F65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G65">
         <v>91592</v>
@@ -4537,10 +4537,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s">
         <v>79</v>
@@ -4549,7 +4549,7 @@
         <v>67</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G66">
         <v>97690</v>
@@ -4578,19 +4578,19 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" t="s">
         <v>260</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
         <v>261</v>
-      </c>
-      <c r="D67" t="s">
-        <v>262</v>
-      </c>
-      <c r="E67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" t="s">
-        <v>263</v>
       </c>
       <c r="G67">
         <v>93496</v>
@@ -4619,19 +4619,19 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" t="s">
         <v>264</v>
-      </c>
-      <c r="C68" t="s">
-        <v>265</v>
-      </c>
-      <c r="D68" t="s">
-        <v>266</v>
       </c>
       <c r="E68" t="s">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G68">
         <v>94492</v>
@@ -4660,19 +4660,19 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
         <v>268</v>
-      </c>
-      <c r="C69" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" t="s">
-        <v>330</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>270</v>
       </c>
       <c r="G69">
         <v>93913</v>
@@ -4701,19 +4701,19 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" t="s">
         <v>271</v>
-      </c>
-      <c r="C70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
       </c>
       <c r="E70" t="s">
         <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G70">
         <v>91689</v>
@@ -4742,19 +4742,19 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
         <v>275</v>
-      </c>
-      <c r="C71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" t="s">
-        <v>276</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>277</v>
       </c>
       <c r="G71">
         <v>95560</v>
@@ -4783,19 +4783,19 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
         <v>278</v>
-      </c>
-      <c r="C72" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" t="s">
-        <v>279</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>280</v>
       </c>
       <c r="G72">
         <v>95285</v>
@@ -4824,19 +4824,19 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" t="s">
         <v>281</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
         <v>282</v>
-      </c>
-      <c r="D73" t="s">
-        <v>283</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>284</v>
       </c>
       <c r="G73">
         <v>93363</v>
@@ -4865,19 +4865,19 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
         <v>285</v>
-      </c>
-      <c r="C74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" t="s">
-        <v>286</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>287</v>
       </c>
       <c r="G74">
         <v>98599</v>
@@ -4906,19 +4906,19 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" t="s">
         <v>288</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
         <v>289</v>
-      </c>
-      <c r="D75" t="s">
-        <v>290</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>291</v>
       </c>
       <c r="G75">
         <v>94252</v>
@@ -4947,19 +4947,19 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" t="s">
         <v>292</v>
-      </c>
-      <c r="C76" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" t="s">
-        <v>294</v>
       </c>
       <c r="E76" t="s">
         <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G76">
         <v>93333</v>
@@ -4988,19 +4988,19 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" t="s">
         <v>296</v>
-      </c>
-      <c r="C77" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" t="s">
-        <v>298</v>
       </c>
       <c r="E77" t="s">
         <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G77">
         <v>95218</v>
@@ -5029,19 +5029,19 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" t="s">
         <v>300</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
         <v>301</v>
-      </c>
-      <c r="D78" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>303</v>
       </c>
       <c r="G78">
         <v>97238</v>
@@ -5070,19 +5070,19 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" t="s">
+        <v>303</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
         <v>304</v>
-      </c>
-      <c r="C79" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" t="s">
-        <v>305</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>306</v>
       </c>
       <c r="G79">
         <v>99601</v>
@@ -5111,19 +5111,19 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" t="s">
         <v>307</v>
-      </c>
-      <c r="C80" t="s">
-        <v>308</v>
-      </c>
-      <c r="D80" t="s">
-        <v>309</v>
       </c>
       <c r="E80" t="s">
         <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G80">
         <v>99443</v>
@@ -5152,19 +5152,19 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E81" t="s">
         <v>67</v>
       </c>
       <c r="F81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G81">
         <v>92628</v>
@@ -5193,19 +5193,19 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" t="s">
         <v>314</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
         <v>315</v>
-      </c>
-      <c r="D82" t="s">
-        <v>316</v>
-      </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="G82">
         <v>95076</v>
@@ -5234,19 +5234,19 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" t="s">
         <v>318</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
         <v>319</v>
-      </c>
-      <c r="D83" t="s">
-        <v>320</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>321</v>
       </c>
       <c r="G83">
         <v>93195</v>
@@ -5272,5 +5272,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>